--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2542209.538033682</v>
+        <v>2646389.172484752</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>62.45439117602552</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>336.9049854834715</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249712</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>56.79250501352222</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>110.115799295207</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.06558468345114</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>157.7822070347172</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>323.9708417730909</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>283.833311208119</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>32.52207646038686</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>230.8833754684137</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.85665993309993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>99.65140663107661</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>59.96838802184504</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>80.90831282608595</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>5.623597659135752</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>46.35517081455656</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>19.91555826189058</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>65.67353929277246</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.90335196317894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392061</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>174.6859374605332</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="G31" t="n">
-        <v>59.452825597604</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>71.05846343488149</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>41.74133133758863</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>36.22494343870233</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.0868108027809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883008</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4400,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2095.592689870585</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C4" t="n">
-        <v>1926.656506942678</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D4" t="n">
-        <v>1926.656506942678</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E4" t="n">
-        <v>1778.743413360285</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F4" t="n">
-        <v>1778.743413360285</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735004</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
         <v>3325.605821609171</v>
@@ -4513,25 +4515,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435998</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>2844.817070561641</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V4" t="n">
-        <v>2787.450903881316</v>
+        <v>2368.36596692528</v>
       </c>
       <c r="W4" t="n">
-        <v>2498.033733844355</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X4" t="n">
-        <v>2498.033733844355</v>
+        <v>1850.959245990302</v>
       </c>
       <c r="Y4" t="n">
-        <v>2277.241154700825</v>
+        <v>1630.166666846772</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.982127379311</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493313</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.584566587187</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794326</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533246</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557434</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>99.36269871540247</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>99.36269871540247</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>99.36269871540247</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>99.36269871540247</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.562675896672</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1412.562675896672</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.145505859711</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>1123.145505859711</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782862</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038249</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797651</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.1502409108</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570808</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279793</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580251</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235156</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258097</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602295</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396408</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396408</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,10 +5530,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>643.5829084413765</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>495.6698148589834</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>348.779867361073</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>181.5837680759529</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2380.626175203723</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6005,34 +6007,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.448174698413</v>
+        <v>3033.629298638937</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>2864.69311571103</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>2714.576476298694</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>2566.663382716301</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4497.236778409373</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4208.161551753571</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3953.477063547684</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3664.059893510724</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3436.070342612707</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3215.277763469177</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6536,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6549,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952728</v>
+        <v>486.0795508855734</v>
       </c>
       <c r="F31" t="n">
-        <v>295.5818533952728</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>3194.624135499464</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>3025.687952571557</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661311</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376191</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218389</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.02030972914</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389148</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098133</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671692</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650994</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305898</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4369.156388614098</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>4369.156388614098</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>4114.471900408212</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>3825.054730371251</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>3597.065179473234</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>3376.272600329704</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7020,22 +7022,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C37" t="n">
-        <v>2824.769373306003</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D37" t="n">
-        <v>2674.652733893667</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E37" t="n">
-        <v>2526.739640311274</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F37" t="n">
-        <v>2379.849692813364</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>130.4075150062571</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,22 +7201,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,34 +7311,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7391,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7497,10 +7499,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>691.1951506745236</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7570,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9753202488374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>186.5330677581675</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.46557462472413</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>144.8013425629512</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.6711151870881</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>179.3544845744806</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>151.7319110345158</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>92.12028678808214</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>77.45170586329479</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.165476520764</v>
       </c>
       <c r="G31" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>146.3469868924068</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>123.7828069546802</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>45.04089287986321</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624564</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.4978425493139</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520047</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.614506921984933e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="C4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818166</v>
-      </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468303</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26525,43 +26527,43 @@
         <v>456715.5764118516</v>
       </c>
       <c r="D6" t="n">
-        <v>456715.576411852</v>
+        <v>456715.5764118514</v>
       </c>
       <c r="E6" t="n">
-        <v>206185.423973913</v>
+        <v>206185.4239739117</v>
       </c>
       <c r="F6" t="n">
         <v>531597.8857812677</v>
       </c>
       <c r="G6" t="n">
-        <v>531597.8857812677</v>
+        <v>531597.8857812678</v>
       </c>
       <c r="H6" t="n">
         <v>531597.8857812677</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812675</v>
+        <v>531597.8857812677</v>
       </c>
       <c r="J6" t="n">
-        <v>314066.68338399</v>
+        <v>314066.6833839903</v>
       </c>
       <c r="K6" t="n">
-        <v>531597.8857812677</v>
+        <v>531597.8857812674</v>
       </c>
       <c r="L6" t="n">
-        <v>531597.8857812675</v>
+        <v>531597.8857812673</v>
       </c>
       <c r="M6" t="n">
-        <v>446542.8578457557</v>
+        <v>446542.8578457555</v>
       </c>
       <c r="N6" t="n">
         <v>531597.8857812674</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812672</v>
+        <v>531597.8857812673</v>
       </c>
       <c r="P6" t="n">
-        <v>531597.8857812675</v>
+        <v>531597.8857812673</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>302.818500594982</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>32.8261151949975</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>195.3451383103058</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>271.8145707770548</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>288.1723539726024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>41.30204999791664</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>70.84973041256399</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>112.2329384539339</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>55.3284627371992</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28506,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-9.657180106098002e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>333.9544784328825</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>551.7051287319862</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,31 +33742,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,28 +34219,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197792</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294375</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>191.358233988438</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>45.87687150790109</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>409.1088842875417</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753348</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2646389.172484752</v>
+        <v>2642376.562470759</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>62.45439117602552</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.76470074483012</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.6898441249712</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>80.71262740536916</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>110.115799295207</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>124.2292170629838</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>283.833311208119</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>198.7866240250368</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>32.52207646038686</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>4.04318711639923</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695591</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576187</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605715212</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>99.65140663107661</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695766</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>80.90831282608595</v>
+        <v>33.82891891787568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>5.623597659135752</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>65.67353929277246</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>125.2851635392061</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>19.9155582618935</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>174.6859374605332</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.255571502167253</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>36.22494343870233</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260345</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.823389952861</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.823389952861</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.823389952861</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952861</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131166</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>2368.36596692528</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>2078.948796888319</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="X4" t="n">
-        <v>1850.959245990302</v>
+        <v>1354.790051742117</v>
       </c>
       <c r="Y4" t="n">
-        <v>1630.166666846772</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.379050624727</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1887.813801820605</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1518.851284880194</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3124.811251886912</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3124.811251886912</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.4793381277382</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>249.4793381277382</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>99.36269871540247</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>99.36269871540247</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>99.36269871540247</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.36269871540247</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1923.210520698191</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579779</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,46 +5029,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468473</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5269,25 +5269,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782862</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038249</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797651</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.1502409108</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570808</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279793</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580251</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580251</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235156</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258097</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602295</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396408</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816191</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537123</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>643.5829084413765</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>495.6698148589834</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>348.779867361073</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>181.5837680759529</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2380.626175203723</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2091.550948547921</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.866460342034</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407056</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6007,16 +6007,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3033.629298638937</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2864.69311571103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2714.576476298694</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2566.663382716301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2419.773435218391</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4497.236778409373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4208.161551753571</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3953.477063547684</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3664.059893510724</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3436.070342612707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3215.277763469177</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876714</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597647</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>261.846482147429</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>113.933388565036</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,7 +6402,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
@@ -6411,25 +6411,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V28" t="n">
-        <v>1578.981115722978</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>762.547769317911</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6469,46 +6469,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>486.0795508855734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349509</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061502</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3194.624135499464</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3025.687952571557</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159222</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661311</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650994</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305898</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4369.156388614098</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4369.156388614098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>4114.471900408212</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3825.054730371251</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3597.065179473234</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.272600329704</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123343</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1053.171308869725</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C37" t="n">
-        <v>884.2351259418183</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D37" t="n">
-        <v>734.1184865294825</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E37" t="n">
-        <v>586.2053929470894</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>439.315445449179</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>272.119346164059</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>130.4075150062571</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7125,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.601903741512</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.612352843495</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.819773699965</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7311,34 +7311,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.6341900408541</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>186.5330677581675</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8013425629512</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.6711151870881</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.7319110345158</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>92.12028678808214</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>125.5054897610376</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>77.45170586329479</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>144.165476520764</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>45.04089287986321</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>20.61870490125375</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F40" t="n">
-        <v>35.40333084624564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057523</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.608212992996791e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.614506921984933e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818175</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="D4" t="n">
-        <v>92183.89891818172</v>
-      </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683027</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468303</v>
+        <v>12996.86414683033</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26441,19 +26441,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.86414683047</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="K4" t="n">
-        <v>12996.86414683049</v>
-      </c>
       <c r="L4" t="n">
-        <v>12996.86414683052</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872029.1693157409</v>
+        <v>-872029.1693157412</v>
       </c>
       <c r="C6" t="n">
-        <v>456715.5764118516</v>
+        <v>456715.576411852</v>
       </c>
       <c r="D6" t="n">
         <v>456715.5764118514</v>
       </c>
       <c r="E6" t="n">
-        <v>206185.4239739117</v>
+        <v>205838.0447195553</v>
       </c>
       <c r="F6" t="n">
-        <v>531597.8857812677</v>
+        <v>531250.5065269102</v>
       </c>
       <c r="G6" t="n">
-        <v>531597.8857812678</v>
+        <v>531250.5065269105</v>
       </c>
       <c r="H6" t="n">
-        <v>531597.8857812677</v>
+        <v>531250.5065269105</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812677</v>
+        <v>531250.5065269107</v>
       </c>
       <c r="J6" t="n">
-        <v>314066.6833839903</v>
+        <v>313719.3041296324</v>
       </c>
       <c r="K6" t="n">
-        <v>531597.8857812674</v>
+        <v>531250.5065269104</v>
       </c>
       <c r="L6" t="n">
-        <v>531597.8857812673</v>
+        <v>531250.5065269105</v>
       </c>
       <c r="M6" t="n">
-        <v>446542.8578457555</v>
+        <v>446195.4785913983</v>
       </c>
       <c r="N6" t="n">
-        <v>531597.8857812674</v>
+        <v>531250.5065269105</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812673</v>
+        <v>531250.5065269107</v>
       </c>
       <c r="P6" t="n">
-        <v>531597.8857812673</v>
+        <v>531250.5065269105</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>302.818500594982</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758528</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>137.8720259467256</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>271.8145707770548</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>70.84973041256399</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>5.131346114583295</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>112.2329384539339</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>215.50576215977</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.038966604191547e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.657180106098002e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.076026624124599e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913755</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,34 +32077,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768135</v>
+        <v>399.9031616963271</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319862</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>555.1777416630686</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197792</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770453</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969394</v>
+        <v>261.3487819164529</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326294375</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,16 +36764,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875417</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>416.6233618831944</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753348</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2642376.562470759</v>
+        <v>2644137.092773544</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074483012</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.76470074482967</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.71262740536916</v>
+        <v>168.5600830741123</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>50.04052206184424</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>124.2292170629838</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>255.0100803403008</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>198.7866240250368</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>28.87956703897726</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4.04318711639923</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576187</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.799772605715212</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.959001240238</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695766</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.82891891787568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.9155582618935</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>196.7867454260345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>94.91529601901384</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4354,10 +4354,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4366,7 +4366,7 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.97538618064</v>
@@ -4375,7 +4375,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1582.779602640134</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X4" t="n">
-        <v>1354.790051742117</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>746.116007074068</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>335.1301022844604</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>324.098056169861</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3124.811251886912</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3124.811251886912</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2793.748364543341</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1923.210520698191</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1634.107653823834</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1379.423165617947</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1090.005995580987</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1120.784960279158</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.528408326419</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400706</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121636</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121636</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851786</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138407</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5971,52 +5971,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.846482147429</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>113.933388565036</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614411</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317911</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7311,16 +7311,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>144.6341900408541</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>55.21102825632966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>20.61870490125375</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>38.13892827624255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>8.608212992996791e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683027</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683033</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-872029.1693157412</v>
       </c>
       <c r="C6" t="n">
-        <v>456715.576411852</v>
+        <v>456715.5764118517</v>
       </c>
       <c r="D6" t="n">
         <v>456715.5764118514</v>
       </c>
       <c r="E6" t="n">
-        <v>205838.0447195553</v>
+        <v>206150.6860484762</v>
       </c>
       <c r="F6" t="n">
-        <v>531250.5065269102</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="G6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="H6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558317</v>
       </c>
       <c r="I6" t="n">
-        <v>531250.5065269107</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="J6" t="n">
-        <v>313719.3041296324</v>
+        <v>314031.9454585541</v>
       </c>
       <c r="K6" t="n">
-        <v>531250.5065269104</v>
+        <v>531563.1478558315</v>
       </c>
       <c r="L6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558315</v>
       </c>
       <c r="M6" t="n">
-        <v>446195.4785913983</v>
+        <v>446508.1199203195</v>
       </c>
       <c r="N6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558317</v>
       </c>
       <c r="O6" t="n">
-        <v>531250.5065269107</v>
+        <v>531563.1478558319</v>
       </c>
       <c r="P6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558315</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758528</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.4732379112239</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.8720259467256</v>
+        <v>50.02457027798249</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>277.7117364082907</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104186</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>161.9826211426291</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>39.5976840470197</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.131346114583295</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>150.95241314296</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>215.50576215977</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.038966604191547e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.076026624124599e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
